--- a/biology/Zoologie/Écureuil_pygmée_néo-tropical/Écureuil_pygmée_néo-tropical.xlsx
+++ b/biology/Zoologie/Écureuil_pygmée_néo-tropical/Écureuil_pygmée_néo-tropical.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>%C3%89cureuil_pygm%C3%A9e_n%C3%A9o-tropical</t>
+          <t>Écureuil_pygmée_néo-tropical</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Sciurillus pusillus
-L'Écureuil pygmée néo-tropical, Écureuil nain ou Petit Guerlinguet[1] (Sciurillus pusillus) est une espèce de rongeurs de la famille des Sciuridés vivant en Amérique du Sud. Elle est l'unique espèce du genre Sciurillus.
+L'Écureuil pygmée néo-tropical, Écureuil nain ou Petit Guerlinguet (Sciurillus pusillus) est une espèce de rongeurs de la famille des Sciuridés vivant en Amérique du Sud. Elle est l'unique espèce du genre Sciurillus.
 </t>
         </is>
       </c>
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>%C3%89cureuil_pygm%C3%A9e_n%C3%A9o-tropical</t>
+          <t>Écureuil_pygmée_néo-tropical</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,9 +524,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est présente en Colombie, au Pérou, au Guyana, au Suriname, en Guyane et au Brésil[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est présente en Colombie, au Pérou, au Guyana, au Suriname, en Guyane et au Brésil.
 </t>
         </is>
       </c>
